--- a/DATA_goal/Junction_Flooding_198.xlsx
+++ b/DATA_goal/Junction_Flooding_198.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41630.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.52</v>
+        <v>1.45</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>31.35</v>
+        <v>3.13</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.79</v>
+        <v>2.38</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.25</v>
+        <v>1.13</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.93</v>
+        <v>3.39</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.68</v>
+        <v>1.77</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.03</v>
+        <v>1.3</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>166.59</v>
+        <v>16.66</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>31.66</v>
+        <v>3.17</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.55</v>
+        <v>1.05</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.37</v>
+        <v>2.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.93</v>
+        <v>1.79</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.67</v>
+        <v>3.07</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41630.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.59</v>
+        <v>1.76</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.35</v>
+        <v>0.24</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.23</v>
+        <v>0.32</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.25</v>
+        <v>0.53</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>51.08</v>
+        <v>5.11</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.95</v>
+        <v>1.09</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.43</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41630.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.05</v>
+        <v>0.2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41630.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.08</v>
+        <v>3.31</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.69</v>
+        <v>2.67</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.31</v>
+        <v>4.13</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.81</v>
+        <v>0.38</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>173.48</v>
+        <v>17.35</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.05</v>
+        <v>3.31</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.08</v>
+        <v>2.21</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.66</v>
+        <v>2.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>37.3</v>
+        <v>3.73</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41630.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>15.7</v>
+        <v>1.57</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>34.33</v>
+        <v>3.43</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>27.85</v>
+        <v>2.78</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>47.75</v>
+        <v>4.77</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>19.08</v>
+        <v>1.91</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12.45</v>
+        <v>1.25</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>17.52</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.45</v>
+        <v>1.05</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="T6" s="4" t="n">
-        <v>180.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.12</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.35</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>43.55</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.39</v>
-      </c>
       <c r="AH6" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41630.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>22.2</v>
+        <v>2.22</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>63.66</v>
+        <v>6.37</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>4.55</v>
+        <v>0.45</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>10.37</v>
+        <v>1.04</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>5.37</v>
+        <v>0.54</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>20.56</v>
+        <v>2.06</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41630.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>20.71</v>
+        <v>2.07</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.45</v>
+        <v>1.54</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>45.19</v>
+        <v>4.52</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>36.97</v>
+        <v>3.7</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>16.26</v>
+        <v>1.63</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>59.95</v>
+        <v>5.99</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>25.13</v>
+        <v>2.51</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>18.11</v>
+        <v>1.81</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>19.22</v>
+        <v>1.92</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>23.13</v>
+        <v>2.31</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.63</v>
+        <v>1.36</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>239.89</v>
+        <v>23.99</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>45.33</v>
+        <v>4.53</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>30.54</v>
+        <v>3.05</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.04</v>
+        <v>1.6</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>29.66</v>
+        <v>2.97</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.7</v>
+        <v>1.17</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>18.97</v>
+        <v>1.9</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>54.33</v>
+        <v>5.43</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>18.74</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41630.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41630.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10.65</v>
+        <v>1.06</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>31.18</v>
+        <v>3.12</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>25.47</v>
+        <v>2.55</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>39.72</v>
+        <v>3.97</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>15.92</v>
+        <v>1.59</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>163.17</v>
+        <v>16.32</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>31.14</v>
+        <v>3.11</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>20.95</v>
+        <v>2.09</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>19.61</v>
+        <v>1.96</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>13.09</v>
+        <v>1.31</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>35.68</v>
+        <v>3.57</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_198.xlsx
+++ b/DATA_goal/Junction_Flooding_198.xlsx
@@ -447,11 +447,11 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
@@ -474,7 +474,7 @@
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>44879.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.35</v>
+        <v>23.54</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.3</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.24</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.96</v>
+        <v>49.63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.11</v>
+        <v>41.06</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.53</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.17</v>
+        <v>61.72</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.85</v>
+        <v>28.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.16</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.59</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.92</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>2.6</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.26</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>27.31</v>
+        <v>273.07</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.13</v>
+        <v>51.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.41</v>
+        <v>34.14</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.06</v>
+        <v>30.62</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.74</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.03</v>
+        <v>20.3</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.59</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="3">
@@ -759,37 +759,37 @@
         <v>44879.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,64 +798,64 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44879.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>1.18</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.12</v>
-      </c>
       <c r="E4" s="4" t="n">
-        <v>2.57</v>
+        <v>25.68</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.11</v>
+        <v>21.06</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.3</v>
+        <v>33.01</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.54</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.51</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.8</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.22</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13.61</v>
+        <v>136.14</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.61</v>
+        <v>26.08</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.73</v>
+        <v>17.32</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.6</v>
+        <v>15.98</v>
       </c>
       <c r="AA4" s="4" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.76</v>
       </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.94</v>
+        <v>29.38</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.84</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44879.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.44</v>
+        <v>24.36</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.85</v>
+        <v>18.45</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.3</v>
+        <v>52.97</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.37</v>
+        <v>43.66</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.47</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.21</v>
+        <v>72.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.97</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.97</v>
+        <v>19.7</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.13</v>
+        <v>21.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.09</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.73</v>
+        <v>27.29</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>28.48</v>
+        <v>284.8</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.36</v>
+        <v>53.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.61</v>
+        <v>36.05</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.91</v>
+        <v>19.12</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.55</v>
+        <v>35.47</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.43</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.54</v>
+        <v>65.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1</v>
+        <v>10.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.21</v>
+        <v>22.11</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_198.xlsx
+++ b/DATA_goal/Junction_Flooding_198.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,34 +655,34 @@
         <v>44879.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.54</v>
+        <v>23.541</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.3</v>
+        <v>16.304</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.24</v>
+        <v>4.244</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>49.63</v>
+        <v>49.627</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.06</v>
+        <v>41.058</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.53</v>
+        <v>18.526</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>61.72</v>
+        <v>61.718</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>28.5</v>
+        <v>28.505</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.16</v>
+        <v>12.158</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.74</v>
+        <v>18.744</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>19.59</v>
@@ -691,67 +691,67 @@
         <v>20.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.92</v>
+        <v>5.915</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.42</v>
+        <v>18.422</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.95</v>
+        <v>25.954</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.33</v>
+        <v>15.331</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.81</v>
+        <v>3.814</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.6</v>
+        <v>2.604</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>273.07</v>
+        <v>273.066</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>51.31</v>
+        <v>51.313</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.14</v>
+        <v>34.141</v>
       </c>
       <c r="X2" s="4" t="n">
         <v>17.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.29</v>
+        <v>2.295</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>30.62</v>
+        <v>30.618</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.45</v>
+        <v>13.452</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.74</v>
+        <v>15.735</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.3</v>
+        <v>20.304</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>54.59</v>
+        <v>54.593</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.5</v>
+        <v>9.503</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.26</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="3">
@@ -759,37 +759,37 @@
         <v>44879.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.226</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.477</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.28</v>
+        <v>1.279</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>0.36</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.25</v>
+        <v>10.255</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.582</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.199</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,16 +798,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.376</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.635</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.6</v>
+        <v>0.597</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.47</v>
+        <v>1.469</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.49</v>
@@ -816,46 +816,46 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.137</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>0.62</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.11</v>
+        <v>4.108</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.289</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.291</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.234</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.234</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.241</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.891999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44879.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.83</v>
+        <v>11.826</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.09</v>
+        <v>9.093</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.18</v>
+        <v>1.176</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.68</v>
+        <v>25.684</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>21.06</v>
+        <v>21.058</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.59</v>
+        <v>9.593999999999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.01</v>
+        <v>33.008</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.54</v>
+        <v>14.543</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.29</v>
+        <v>6.286</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.51</v>
+        <v>9.506</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.31</v>
+        <v>10.307</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.8</v>
+        <v>10.799</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.91</v>
+        <v>2.908</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.4</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.22</v>
+        <v>13.222</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>8.044</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>1.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.636</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>136.14</v>
+        <v>136.136</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>26.08</v>
+        <v>26.081</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.32</v>
+        <v>17.323</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.368</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.23</v>
+        <v>1.226</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.98</v>
+        <v>15.979</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.65</v>
+        <v>7.646</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>6.77</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.88</v>
+        <v>7.878</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>10.92</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.764</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>29.38</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.84</v>
+        <v>4.836</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.83</v>
+        <v>10.828</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>22.11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44879.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.14</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>39.45</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>57.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.85</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.34</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>210.34</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.89</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.61</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>52.23</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.47</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_198.xlsx
+++ b/DATA_goal/Junction_Flooding_198.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,16 +465,16 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -967,103 +967,207 @@
         <v>44879.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.36</v>
+        <v>24.358</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.45</v>
+        <v>18.454</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.38</v>
+        <v>1.377</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>52.97</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>43.66</v>
+        <v>43.656</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.47</v>
+        <v>19.468</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>72.05</v>
+        <v>72.05500000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.67</v>
+        <v>29.668</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.17</v>
+        <v>13.171</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.7</v>
+        <v>19.699</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.27</v>
+        <v>21.271</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.41</v>
+        <v>22.413</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.09</v>
+        <v>6.088</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.17</v>
+        <v>19.174</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.29</v>
+        <v>27.294</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.1</v>
+        <v>16.104</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.898</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.923</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>284.8</v>
+        <v>284.803</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>53.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.7</v>
+        <v>17.698</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>36.05</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>19.12</v>
+        <v>19.124</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.51</v>
+        <v>2.508</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>35.47</v>
+        <v>35.471</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.62</v>
+        <v>15.616</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.77</v>
+        <v>13.772</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.12</v>
+        <v>16.122</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.43</v>
+        <v>22.426</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.552</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>65.38</v>
+        <v>65.381</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>10.01</v>
+        <v>10.008</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>22.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44879.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>39.45</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>57.48</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>210.34</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>52.23</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.47</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_198.xlsx
+++ b/DATA_goal/Junction_Flooding_198.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,16 +465,16 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -967,207 +967,103 @@
         <v>44879.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.358</v>
+        <v>24.36</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.454</v>
+        <v>18.45</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.377</v>
+        <v>1.38</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>52.97</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>43.656</v>
+        <v>43.66</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.468</v>
+        <v>19.47</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>72.05500000000001</v>
+        <v>72.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.668</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.171</v>
+        <v>13.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.699</v>
+        <v>19.7</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.271</v>
+        <v>21.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.413</v>
+        <v>22.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.088</v>
+        <v>6.09</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.174</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.294</v>
+        <v>27.29</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.104</v>
+        <v>16.1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.898</v>
+        <v>0.9</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.923</v>
+        <v>0.92</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>284.803</v>
+        <v>284.8</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>53.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.698</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>36.05</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>19.124</v>
+        <v>19.12</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.508</v>
+        <v>2.51</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>35.471</v>
+        <v>35.47</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.616</v>
+        <v>15.62</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.772</v>
+        <v>13.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.122</v>
+        <v>16.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.426</v>
+        <v>22.43</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.552</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>65.381</v>
+        <v>65.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>10.008</v>
+        <v>10.01</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>22.11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44879.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.14</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>39.45</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>57.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.85</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.34</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>210.34</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.89</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.61</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>52.23</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.47</v>
       </c>
     </row>
   </sheetData>
